--- a/lr/output/Tabla_Comparativa_Colaboración_Artística.xlsx
+++ b/lr/output/Tabla_Comparativa_Colaboración_Artística.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\Desktop\PRODUCCION\00. ACCIÓN PROXIMA\04. Trucos del Oficio\trucos_del_oficio\lr\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86A0AC9-4BD2-46CB-8349-713FA7F5CC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02CAA72-350A-42D4-93ED-5A9A7889D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="18225" windowHeight="6555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="232" yWindow="3308" windowWidth="22268" windowHeight="7027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Nombre de la Teoría y Autor/a (Año)</t>
   </si>
@@ -567,9 +567,6 @@
     <t>Acá: veo un error en ChatGPT: mediaciones en Hennion incluye vinculos con no humanos</t>
   </si>
   <si>
-    <t>Se destaca: arte como proceso colectivo, autoridad y roles que lo organizan</t>
-  </si>
-  <si>
     <t>Es una aplicación de análisis de redes sociales en la colaboración</t>
   </si>
   <si>
@@ -582,7 +579,19 @@
     <t>Problema 1</t>
   </si>
   <si>
-    <t>¿Cómo se organizan los procesos colaborativos de la Música Urbana chilena? ¿Creuál es la influencia de sus aspectos especificos y de la situación contemporánea de la música en tiempos de la digitalización?</t>
+    <t>¿Cómo se organizan los procesos colaborativos de la Música Urbana chilena? ¿Cuál es la influencia de sus aspectos especificos y de la situación contemporánea de la música en tiempos de la digitalización?</t>
+  </si>
+  <si>
+    <t>¿Cuáles son las jerarquías que intervienen en la organización de la colaboración?</t>
+  </si>
+  <si>
+    <t>¿Cómo se organizan los procesos de colaboración con los no-humanos (tecnologías digitales, instrumentos)?</t>
+  </si>
+  <si>
+    <t>a) Se destaca: arte como proceso colectivo, autoridad y roles que lo organizan; b) Se me hace muy cercano a H. Becker</t>
+  </si>
+  <si>
+    <t>¿Qué criterios de autenticidad (de valoración de la música) inciden en la cooperación?</t>
   </si>
 </sst>
 </file>
@@ -676,11 +685,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1022,8 +1031,8 @@
       <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>68</v>
+      <c r="H1" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
@@ -1049,7 +1058,7 @@
         <v>61</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.45">
@@ -1074,6 +1083,9 @@
       <c r="G3" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
@@ -1097,6 +1109,9 @@
       <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
@@ -1117,8 +1132,8 @@
       <c r="F5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>64</v>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.45">
@@ -1140,6 +1155,9 @@
       <c r="F6" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
@@ -1160,8 +1178,8 @@
       <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>65</v>
+      <c r="G7" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.45">
@@ -1183,8 +1201,8 @@
       <c r="F8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>66</v>
+      <c r="G8" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.45">
@@ -1226,8 +1244,8 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>67</v>
+      <c r="G10" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
